--- a/Rothschild.xlsx
+++ b/Rothschild.xlsx
@@ -4,13 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rothschild" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7057,7 +7067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
@@ -7073,4 +7083,25 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>